--- a/data/mag.xlsx
+++ b/data/mag.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernh/Documents/Studium/Python/AP2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD35E83-9746-A341-8D33-BEB10020770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA946BCB-C765-3441-A25C-995333A82741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{36025A50-C5CA-2D4E-8893-D664E54D9C1A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{36025A50-C5CA-2D4E-8893-D664E54D9C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Magnetfelder" sheetId="3" r:id="rId2"/>
     <sheet name="Unsicherheiten" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Spulenoch</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Maßstab</t>
+  </si>
+  <si>
+    <t>Spulenmittelpunkt</t>
   </si>
 </sst>
 </file>
@@ -490,18 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132DDB6C-5212-9D4C-A403-471B577BBDB7}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -522,8 +526,15 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <f>B6-(B2/2+B5)</f>
+        <v>3.3949999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -534,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -545,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -556,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -567,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -585,7 +596,7 @@
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FDDBAF-8B5D-1642-B07E-444F4D65B47E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
